--- a/Project report/Ouputs/ODK/RNU.xlsx
+++ b/Project report/Ouputs/ODK/RNU.xlsx
@@ -5533,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12924,7 +12924,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2106021901</v>
+        <v>2106070051</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>

--- a/Project report/Ouputs/ODK/RNU.xlsx
+++ b/Project report/Ouputs/ODK/RNU.xlsx
@@ -3107,468 +3107,468 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFBA005D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF2DBDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE3E0CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE8C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE7D480"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF6969"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99BCE7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFBB57"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFBA005D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF2DBDA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE3E0CF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDDE8C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE7D480"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF6969"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99BCE7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFBB57"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD44B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12212,8 +12212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19801,7 +19801,7 @@
     <cfRule type="duplicateValues" dxfId="65" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B171:B182">
-    <cfRule type="duplicateValues" dxfId="0" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1253"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -25568,248 +25568,248 @@
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="64" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="63" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="63" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="60" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="62" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="57" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="61" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="55" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="60" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="59" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="51" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="58" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="48" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="42" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="44" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="46" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="54" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="40" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="53" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="38" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="52" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="36" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="51" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="34" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="50" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="35" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="37" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="39" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="41" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="43" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="47" stopIfTrue="1">
       <formula>OR($A1="geopoint", $A1="geoshape", $A1="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="49" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit", $A1="speed violations count", $A1="speed violations list", $A1="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="50" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial", $A1="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="52" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="54" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="56" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="58" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="59" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="61" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="62" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="64" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="33" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="30" stopIfTrue="1">
       <formula>$A29="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="32" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="27" stopIfTrue="1">
       <formula>$A29="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="31" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>$A29="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="30" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="22" stopIfTrue="1">
       <formula>$A29="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="29" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
       <formula>$A29="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="28" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="18" stopIfTrue="1">
       <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="15" stopIfTrue="1">
       <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="26" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="9" stopIfTrue="1">
       <formula>$A29="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="11" stopIfTrue="1">
       <formula>$A29="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="7" stopIfTrue="1">
       <formula>OR($A29="calculate", $A29="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
       <formula>OR($A29="date", $A29="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>$A29="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="1" stopIfTrue="1">
       <formula>OR($A29="audio", $A29="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="2" stopIfTrue="1">
       <formula>OR($A29="audio", $A29="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$A29="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
       <formula>OR($A29="date", $A29="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
       <formula>OR($A29="calculate", $A29="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>$A29="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="12" stopIfTrue="1">
       <formula>$A29="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
       <formula>OR($A29="geopoint", $A29="geoshape", $A29="geotrace")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="16" stopIfTrue="1">
       <formula>OR($A29="audio audit", $A29="text audit", $A29="speed violations count", $A29="speed violations list", $A29="speed violations audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="17" stopIfTrue="1">
       <formula>OR($A29="username", $A29="phonenumber", $A29="start", $A29="end", $A29="deviceid", $A29="subscriberid", $A29="simserial", $A29="caseid")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
       <formula>OR(AND(LEFT($A29, 16)="select_multiple ", LEN($A29)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A29, 17)))), AND(LEFT($A29, 11)="select_one ", LEN($A29)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A29, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="21" stopIfTrue="1">
       <formula>$A29="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="23" stopIfTrue="1">
       <formula>$A29="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="25" stopIfTrue="1">
       <formula>$A29="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="26" stopIfTrue="1">
       <formula>$A29="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="28" stopIfTrue="1">
       <formula>$A29="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="29" stopIfTrue="1">
       <formula>$A29="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="31" stopIfTrue="1">
       <formula>$A29="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="duplicateValues" dxfId="2" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="duplicateValues" dxfId="1" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25849,7 +25849,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2106182241</v>
+        <v>2106182353</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>

--- a/Project report/Ouputs/ODK/RNU.xlsx
+++ b/Project report/Ouputs/ODK/RNU.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$AD$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$AD$479</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="1683">
   <si>
     <t>type</t>
   </si>
@@ -5063,9 +5063,6 @@
     <t>count-selected(${r13})</t>
   </si>
   <si>
-    <t>${r13}!=null</t>
-  </si>
-  <si>
     <t xml:space="preserve"> les types de cultures</t>
   </si>
   <si>
@@ -5111,9 +5108,6 @@
     <t>count-selected(${r25a})</t>
   </si>
   <si>
-    <t>${r25a}!=null</t>
-  </si>
-  <si>
     <t>r25a_tab1</t>
   </si>
   <si>
@@ -5145,6 +5139,15 @@
   </si>
   <si>
     <t>ext2_</t>
+  </si>
+  <si>
+    <t>count-selected(${r13})&gt;0</t>
+  </si>
+  <si>
+    <t>count-selected(${r25a})&gt;0</t>
+  </si>
+  <si>
+    <t>RNU</t>
   </si>
 </sst>
 </file>
@@ -26943,11 +26946,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD479"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F289" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F462" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A281" sqref="A281"/>
+      <selection pane="bottomRight" activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31648,10 +31651,10 @@
         <v>1653</v>
       </c>
       <c r="F253" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="O253" t="s">
-        <v>1654</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="254" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -31659,10 +31662,10 @@
         <v>84</v>
       </c>
       <c r="B254" s="23" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="T254" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="255" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -31670,10 +31673,10 @@
         <v>84</v>
       </c>
       <c r="B255" s="23" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="T255" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="256" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -31684,7 +31687,7 @@
         <v>927</v>
       </c>
       <c r="F256" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="K256" t="s">
         <v>906</v>
@@ -31701,7 +31704,7 @@
         <v>928</v>
       </c>
       <c r="F257" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="K257" t="s">
         <v>906</v>
@@ -31718,7 +31721,7 @@
         <v>929</v>
       </c>
       <c r="F258" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="K258" t="s">
         <v>906</v>
@@ -31735,7 +31738,7 @@
         <v>930</v>
       </c>
       <c r="F259" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="K259" t="s">
         <v>906</v>
@@ -31752,7 +31755,7 @@
         <v>931</v>
       </c>
       <c r="F260" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="K260" t="s">
         <v>906</v>
@@ -31769,7 +31772,7 @@
         <v>932</v>
       </c>
       <c r="F261" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="K261" t="s">
         <v>906</v>
@@ -31786,7 +31789,7 @@
         <v>933</v>
       </c>
       <c r="F262" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="Q262" t="s">
         <v>82</v>
@@ -31803,7 +31806,7 @@
         <v>934</v>
       </c>
       <c r="F263" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="Q263" t="s">
         <v>82</v>
@@ -31834,7 +31837,7 @@
         <v>940</v>
       </c>
       <c r="F265" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="K265" t="s">
         <v>906</v>
@@ -31926,16 +31929,16 @@
         <v>466</v>
       </c>
       <c r="B272" s="23" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1673</v>
+      </c>
+      <c r="O272" t="s">
         <v>1681</v>
-      </c>
-      <c r="D272" t="s">
-        <v>1669</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1675</v>
-      </c>
-      <c r="O272" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="273" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -31943,10 +31946,10 @@
         <v>84</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="T273" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="274" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -31954,10 +31957,10 @@
         <v>84</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="T274" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="275" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -31968,7 +31971,7 @@
         <v>965</v>
       </c>
       <c r="F275" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="K275" t="s">
         <v>906</v>
@@ -31985,7 +31988,7 @@
         <v>966</v>
       </c>
       <c r="F276" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="K276" t="s">
         <v>906</v>
@@ -32002,7 +32005,7 @@
         <v>967</v>
       </c>
       <c r="F277" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="K277" t="s">
         <v>906</v>
@@ -32019,7 +32022,7 @@
         <v>968</v>
       </c>
       <c r="F278" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="K278" t="s">
         <v>906</v>
@@ -32036,7 +32039,7 @@
         <v>969</v>
       </c>
       <c r="F279" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="K279" t="s">
         <v>906</v>
@@ -32050,7 +32053,7 @@
         <v>527</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="281" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -35193,7 +35196,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD1"/>
+  <autoFilter ref="A1:AD479"/>
   <conditionalFormatting sqref="O1 J1 B1:F1 B167:B178 B348:B364 B457:B479 B434:B440 B406:B407">
     <cfRule type="expression" dxfId="2853" priority="3043" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
@@ -53203,8 +53206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53233,9 +53236,12 @@
       <c r="A2" t="s">
         <v>1645</v>
       </c>
+      <c r="B2" t="s">
+        <v>1682</v>
+      </c>
       <c r="C2" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2106211930</v>
+        <v>2106281408</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
